--- a/RefsAndSyllabus/Ref for QG.xlsx
+++ b/RefsAndSyllabus/Ref for QG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,12 +346,31 @@
   </si>
   <si>
     <t>arXiv:1604.07818</t>
+  </si>
+  <si>
+    <t>emergent geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building up spacetime with quantum entanglement</t>
+  </si>
+  <si>
+    <t>Sketches of emergent geometry in the gauge/gravity duality</t>
+  </si>
+  <si>
+    <t>arXiv:1005.3035</t>
+  </si>
+  <si>
+    <t>arXiv:1404.7052</t>
+  </si>
+  <si>
+    <t>brief, elegant and influential paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +436,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -705,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,8 +1077,29 @@
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1136,8 @@
     <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A16:A19"/>
